--- a/data/PackageDefinedFirmTypeWhitelist.xlsx
+++ b/data/PackageDefinedFirmTypeWhitelist.xlsx
@@ -5,14 +5,14 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mingo/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mingo/Documents/xenSplittingService/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="8320" yWindow="460" windowWidth="28800" windowHeight="17600" tabRatio="500"/>
+    <workbookView xWindow="4800" yWindow="460" windowWidth="28800" windowHeight="17600" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="工作表1" sheetId="1" r:id="rId1"/>
+    <sheet name="中文" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>

--- a/data/PackageDefinedFirmTypeWhitelist.xlsx
+++ b/data/PackageDefinedFirmTypeWhitelist.xlsx
@@ -24,6 +24,58 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+  <si>
+    <t>公司</t>
+  </si>
+  <si>
+    <t>有限公司</t>
+  </si>
+  <si>
+    <t>股份有限公司</t>
+    <rPh sb="0" eb="1">
+      <t>gu'fen</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>you'xian'gong'si</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>集团公司</t>
+    <rPh sb="0" eb="1">
+      <t>ji'tuan'gong'si</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>集团有限公司</t>
+    <rPh sb="0" eb="1">
+      <t>ji'tuan'you'xian'gong'si</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有限责任公司</t>
+    <rPh sb="0" eb="1">
+      <t>you'xian'ze'ren'gong'si</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>银行</t>
+  </si>
+  <si>
+    <t>事务所</t>
+    <rPh sb="0" eb="1">
+      <t>shi'wu'suo</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -344,12 +396,47 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
